--- a/biology/Zoologie/Ceratopogon/Ceratopogon.xlsx
+++ b/biology/Zoologie/Ceratopogon/Ceratopogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anakempia, Cerapogon, Diplohelea, Helea, Isohelea, Psilohelca, Psilohelea
 Ceratopogon est un genre d'insectes diptères (ou mouches) de la famille des Ceratopogonidae (les « moucherons piqueurs » selon la traduction anglaise).
@@ -512,13 +524,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ceratopogon est décrit en 1803 par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845)[1],[2].
-Sous-famille et tribu
-Selon l’ITIS en 2023, le genre est classé dans la sous-famille des Ceratopogoninae et la tribu des Ceratopogonini[3].
-Synonymes
-Selon GBIF en 2023, le nombre de synonymes est de sept ou huit[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ceratopogon est décrit en 1803 par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceratopogon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-famille et tribu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l’ITIS en 2023, le genre est classé dans la sous-famille des Ceratopogoninae et la tribu des Ceratopogonini.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceratopogon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF en 2023, le nombre de synonymes est de sept ou huit :
 Anakempia Kieffer, 1924
 Cerapogon Rafinesque, 1815
 Diplohelea Kieffer, 1925
@@ -526,71 +610,110 @@
 Helea Osten Sacken, 1882
 Isohelea Kieffer, 1921
 Psilohelca Kieffer, 1915
-Psilohelea Kieffer, 1915[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de fossiles est de dix-huit collections pour 74 occurrences, de l'Oligocène en France (une collection) et en Allemagne (une), de l'Éocène, au Danemark (deux), Allemagne (deux), Pologne (quatre), Russie (quatre), Ukraine (quatre). Ces fossiles couvrent la période du Priabonien ou Éocène supérieur au Chattien ou Oligocène supérieur soit 38 à 23,03 Ma avant notre ère[4].
+Psilohelea Kieffer, 1915.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ceratopogon</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre de fossiles est de dix-huit collections pour 74 occurrences, de l'Oligocène en France (une collection) et en Allemagne (une), de l'Éocène, au Danemark (deux), Allemagne (deux), Pologne (quatre), Russie (quatre), Ukraine (quatre). Ces fossiles couvrent la période du Priabonien ou Éocène supérieur au Chattien ou Oligocène supérieur soit 38 à 23,03 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceratopogon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ceratopogon a une distribution presque cosmopolite[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ceratopogon a une distribution presque cosmopolite.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ceratopogon</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF en 2023, le nombre d'espèces référencées est de 83[2] dont :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF en 2023, le nombre d'espèces référencées est de 83 dont :
 C. abstrusus Borkent and Grogan, 1995
 C. algidus Borkent and Grogan, 1995
 C. annettae Borkent and Grogan, 1995
@@ -624,8 +747,43 @@
 C. scutellatus Say, 1829
 C. seculus Borkent and Grogan, 1995
 C. willisi Borkent and Grogan, 1995
-Liste d'espèces plus complète (sans auteurs)
-Selon IRMNG en 2023 le nombre d'espèces référencées est de 506[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceratopogon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces plus complète (sans auteurs)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon IRMNG en 2023 le nombre d'espèces référencées est de 506 :
 Liste d'espèces du genre Ceratopogon
 Ceratopogon abdominalis
 Ceratopogon abstrusus
@@ -754,33 +912,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ceratopogon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ceratopogon</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles référencées est de vingt-deux[4] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles référencées est de vingt-deux :
 †Ceratopogon bitterfeldi Szadziewski, 1993
 †Ceratopogon ceranowiczi Szadziewski, 1988
 †Ceratopogon crypticus Szadziewski, 1988
@@ -802,7 +962,7 @@
 †Ceratopogon spiniger Loew, 1850
 †Ceratopogon subeminens Szadziewski, 1993
 †Ceratopogon succinicola Szadziewski, 1993
-†Ceratopogon tertiaricus Szadziewski, 1988[4]
+†Ceratopogon tertiaricus Szadziewski, 1988
 </t>
         </is>
       </c>
